--- a/tut04/output_by_subject/MM205.xlsx
+++ b/tut04/output_by_subject/MM205.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,286 +424,91 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>rollno</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>register_sem</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>subno</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>sub_type</t>
+          <t>rollnoregister_semsubnosub_type</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2001MM04</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>MM205</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001MM043MM205CORE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2001MM13</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>MM205</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001MM133MM205CORE</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2001MM29</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>MM205</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001MM293MM205CORE</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2001MM37</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>MM205</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001MM373MM205CORE</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2001MM24</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>MM205</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001MM243MM205CORE</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2001MM23</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>MM205</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001MM233MM205CORE</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2001MM18</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>MM205</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001MM183MM205CORE</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2001MM14</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>MM205</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001MM143MM205CORE</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2001MM10</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>MM205</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001MM103MM205CORE</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2001MM09</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>MM205</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001MM093MM205CORE</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2001MM03</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>MM205</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001MM033MM205CORE</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2001MM01</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>MM205</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>CORE</t>
+          <t>2001MM013MM205CORE</t>
         </is>
       </c>
     </row>
